--- a/Tabela  1e - Taxa de Fecundidade Geral por fontes.xlsx
+++ b/Tabela  1e - Taxa de Fecundidade Geral por fontes.xlsx
@@ -429,7 +429,7 @@
         <v>52.21139223735137</v>
       </c>
       <c r="C5">
-        <v>52.42947710050312</v>
+        <v>51.88191994409524</v>
       </c>
       <c r="D5">
         <v>50.50892330565063</v>
@@ -440,10 +440,10 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>53.45408270884086</v>
+        <v>51.83036366207173</v>
       </c>
       <c r="C6">
-        <v>51.76430228757791</v>
+        <v>52.29742916945786</v>
       </c>
       <c r="D6">
         <v>51.4652876451322</v>
@@ -454,10 +454,10 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>49.68827315480408</v>
+        <v>52.87776959958176</v>
       </c>
       <c r="C7">
-        <v>51.22111166906281</v>
+        <v>51.27958194896347</v>
       </c>
       <c r="D7">
         <v>51.70033866903299</v>
@@ -468,10 +468,10 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>50.55342433433681</v>
+        <v>49.16050553424334</v>
       </c>
       <c r="C8">
-        <v>49.94770883006164</v>
+        <v>50.67706289232557</v>
       </c>
       <c r="D8">
         <v>48.4969407964138</v>
@@ -482,10 +482,10 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>49.66623213161917</v>
+        <v>50.08540861278432</v>
       </c>
       <c r="C9">
-        <v>49.14141868201025</v>
+        <v>49.48530072822081</v>
       </c>
       <c r="D9">
         <v>49.99100961970692</v>
@@ -496,10 +496,10 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>47.28249905539772</v>
+        <v>49.25864046375235</v>
       </c>
       <c r="C10">
-        <v>46.80434639652341</v>
+        <v>48.73813395630643</v>
       </c>
       <c r="D10">
         <v>49.44700363239981</v>
@@ -510,10 +510,10 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>43.55017879903696</v>
+        <v>46.93696006231412</v>
       </c>
       <c r="C11">
-        <v>44.18969515649341</v>
+        <v>46.46230172780059</v>
       </c>
       <c r="D11">
         <v>48.91525633762924</v>
@@ -524,7 +524,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>41.79881620389602</v>
+        <v>43.25603272253323</v>
       </c>
       <c r="D12">
         <v>48.40354567373736</v>
